--- a/data-raw/genderMarkers.xlsx
+++ b/data-raw/genderMarkers.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mike/GitHub/hbc/bcbioRNASeq/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C10FAC6-77DA-7F47-B6BC-67A439EA8F6E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="13220" windowHeight="14580" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="13220" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Homo_sapiens" sheetId="2" r:id="rId1"/>
     <sheet name="Mus_musculus" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,12 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
-    <t>ensgene</t>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
     <t>chromosome</t>
   </si>
   <si>
@@ -118,12 +113,18 @@
   </si>
   <si>
     <t>UTY</t>
+  </si>
+  <si>
+    <t>geneID</t>
+  </si>
+  <si>
+    <t>geneName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -164,6 +165,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -431,44 +435,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -476,13 +480,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -490,13 +494,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -504,13 +508,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -518,13 +522,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -532,13 +536,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -551,44 +555,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showRuler="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -596,13 +600,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -610,13 +614,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -624,13 +628,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -638,13 +642,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -652,13 +656,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
